--- a/24jinugoki.xlsx
+++ b/24jinugoki.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>転  入</t>
   </si>
@@ -31,231 +31,231 @@
     <rPh sb="0" eb="3">
       <t>ヒメジシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>大阪市</t>
     <rPh sb="0" eb="3">
       <t>オオサカシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>京都府</t>
     <rPh sb="0" eb="3">
       <t>キョウトフ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>奈良県</t>
     <rPh sb="0" eb="3">
       <t>ナラケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>東京都</t>
     <rPh sb="0" eb="3">
       <t>トウキョウト</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>神奈川県</t>
     <rPh sb="0" eb="4">
       <t>カナガワケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>千葉県</t>
     <rPh sb="0" eb="3">
       <t>チバケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>埼玉県</t>
     <rPh sb="0" eb="3">
       <t>サイタマケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>愛知県</t>
     <rPh sb="0" eb="3">
       <t>アイチケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>岡山県</t>
     <rPh sb="0" eb="3">
       <t>オカヤマケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>広島県</t>
     <rPh sb="0" eb="3">
       <t>ヒロシマケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>福岡県</t>
     <rPh sb="0" eb="3">
       <t>フクオカケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>東灘区</t>
     <rPh sb="0" eb="3">
       <t>ヒガシナダク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>灘区</t>
     <rPh sb="0" eb="2">
       <t>ナダク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>中央区</t>
     <rPh sb="0" eb="3">
       <t>チュウオウク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>兵庫区</t>
     <rPh sb="0" eb="3">
       <t>ヒョウゴク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>北区</t>
     <rPh sb="0" eb="2">
       <t>キタク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>長田区</t>
     <rPh sb="0" eb="3">
       <t>ナガタク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>須磨区</t>
     <rPh sb="0" eb="3">
       <t>スマク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>垂水区</t>
     <rPh sb="0" eb="3">
       <t>タルミク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>西区</t>
     <rPh sb="0" eb="2">
       <t>ニシク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>尼崎市</t>
     <rPh sb="0" eb="3">
       <t>アマガサキシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>明石市</t>
     <rPh sb="0" eb="3">
       <t>アカシシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>西宮市</t>
     <rPh sb="0" eb="3">
       <t>ニシノミヤシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>洲本市</t>
     <rPh sb="0" eb="3">
       <t>スモトシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>芦屋市</t>
     <rPh sb="0" eb="3">
       <t>アシヤシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>伊丹市</t>
     <rPh sb="0" eb="3">
       <t>イタミシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>相生市</t>
     <rPh sb="0" eb="3">
       <t>アイオイシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>豊岡市</t>
     <rPh sb="0" eb="3">
       <t>トヨオカシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>加古川市</t>
     <rPh sb="0" eb="4">
       <t>カコガワシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>赤穂市</t>
     <rPh sb="0" eb="3">
       <t>アコウシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>西脇市</t>
     <rPh sb="0" eb="3">
       <t>ニシワキシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>宝塚市</t>
     <rPh sb="0" eb="3">
       <t>タカラヅカシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>三木市</t>
@@ -265,56 +265,56 @@
     <rPh sb="2" eb="3">
       <t>シ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>高砂市</t>
     <rPh sb="0" eb="3">
       <t>タカサゴシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>川西市</t>
     <rPh sb="0" eb="3">
       <t>カワニシシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>小野市</t>
     <rPh sb="0" eb="3">
       <t>オノシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>三田市</t>
     <rPh sb="0" eb="3">
       <t>サンダシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>加西市</t>
     <rPh sb="0" eb="3">
       <t>カサイシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>篠山市</t>
     <rPh sb="0" eb="3">
       <t>ササヤマシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>養父市</t>
     <rPh sb="0" eb="3">
       <t>ヤブシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>丹波市</t>
@@ -324,7 +324,7 @@
     <rPh sb="2" eb="3">
       <t>シ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>南あわじ市</t>
@@ -334,7 +334,7 @@
     <rPh sb="4" eb="5">
       <t>シ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>朝来市</t>
@@ -344,7 +344,7 @@
     <rPh sb="2" eb="3">
       <t>シ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>淡路市</t>
@@ -354,7 +354,7 @@
     <rPh sb="2" eb="3">
       <t>シ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>宍粟市</t>
@@ -367,449 +367,449 @@
     <rPh sb="2" eb="3">
       <t>シ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>加東市</t>
     <rPh sb="0" eb="3">
       <t>カトウシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>たつの市</t>
     <rPh sb="3" eb="4">
       <t>シ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>その他</t>
     <rPh sb="2" eb="3">
       <t>タ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>北海道</t>
     <rPh sb="0" eb="3">
       <t>ホッカイドウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>青森県</t>
     <rPh sb="0" eb="3">
       <t>アオモリケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>岩手県</t>
     <rPh sb="0" eb="3">
       <t>イワテケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>宮城県</t>
     <rPh sb="0" eb="3">
       <t>ミヤギケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>秋田県</t>
     <rPh sb="0" eb="3">
       <t>アキタケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>山形県</t>
     <rPh sb="0" eb="3">
       <t>ヤマガタケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>福島県</t>
     <rPh sb="0" eb="3">
       <t>フクシマケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>茨城県</t>
     <rPh sb="0" eb="3">
       <t>イバラキケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>栃木県</t>
     <rPh sb="0" eb="3">
       <t>トチギケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>群馬県</t>
     <rPh sb="0" eb="3">
       <t>グンマケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>新潟県</t>
     <rPh sb="0" eb="3">
       <t>ニイガタケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>富山県</t>
     <rPh sb="0" eb="3">
       <t>トヤマケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>石川県</t>
     <rPh sb="0" eb="3">
       <t>イシカワケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>福井県</t>
     <rPh sb="0" eb="3">
       <t>フクイケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>山梨県</t>
     <rPh sb="0" eb="3">
       <t>ヤマナシケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>長野県</t>
     <rPh sb="0" eb="3">
       <t>ナガノケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>岐阜県</t>
     <rPh sb="0" eb="3">
       <t>ギフケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>静岡県</t>
     <rPh sb="0" eb="3">
       <t>シズオカケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>三重県</t>
     <rPh sb="0" eb="3">
       <t>ミエケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>滋賀県</t>
     <rPh sb="0" eb="3">
       <t>シガケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>大阪府</t>
     <rPh sb="0" eb="3">
       <t>オオサカフ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>和歌山県</t>
     <rPh sb="0" eb="4">
       <t>ワカヤマケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>鳥取県</t>
     <rPh sb="0" eb="3">
       <t>トットリケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>島根県</t>
     <rPh sb="0" eb="3">
       <t>シマネケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>山口県</t>
     <rPh sb="0" eb="3">
       <t>ヤマグチケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>徳島県</t>
     <rPh sb="0" eb="3">
       <t>トクシマケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>香川県</t>
     <rPh sb="0" eb="3">
       <t>カガワケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>愛媛県</t>
     <rPh sb="0" eb="3">
       <t>エヒメケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>高知県</t>
     <rPh sb="0" eb="3">
       <t>コウチケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>佐賀県</t>
     <rPh sb="0" eb="3">
       <t>サガケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>長崎県</t>
     <rPh sb="0" eb="3">
       <t>ナガサキケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>熊本県</t>
     <rPh sb="0" eb="3">
       <t>クマモトケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>大分県</t>
     <rPh sb="0" eb="3">
       <t>オオイタケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>宮崎県</t>
     <rPh sb="0" eb="3">
       <t>ミヤザキケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>鹿児島県</t>
     <rPh sb="0" eb="4">
       <t>カゴシマケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>沖縄県</t>
     <rPh sb="0" eb="3">
       <t>オキナワケン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>国外</t>
     <rPh sb="0" eb="2">
       <t>コクガイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>札幌市</t>
     <rPh sb="0" eb="3">
       <t>サッポロシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>仙台市</t>
     <rPh sb="0" eb="3">
       <t>センダイシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>さいたま市</t>
     <rPh sb="4" eb="5">
       <t>シ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>千葉市</t>
     <rPh sb="0" eb="3">
       <t>チバシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>横浜市</t>
     <rPh sb="0" eb="3">
       <t>ヨコハマシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>川崎市</t>
     <rPh sb="0" eb="3">
       <t>カワサキシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>相模原市</t>
     <rPh sb="0" eb="4">
       <t>サガミハラシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>新潟市</t>
     <rPh sb="0" eb="3">
       <t>ニイガタシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>静岡市</t>
     <rPh sb="0" eb="3">
       <t>シズオカシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>浜松市</t>
     <rPh sb="0" eb="3">
       <t>ハママツシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>名古屋市</t>
     <rPh sb="0" eb="4">
       <t>ナゴヤシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>京都市</t>
     <rPh sb="0" eb="3">
       <t>キョウトシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>堺市</t>
     <rPh sb="0" eb="2">
       <t>サカイシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>岡山市</t>
     <rPh sb="0" eb="3">
       <t>オカヤマシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>広島市</t>
     <rPh sb="0" eb="3">
       <t>ヒロシマシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>北九州市</t>
     <rPh sb="0" eb="4">
       <t>キタキュウシュウシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>福岡市</t>
     <rPh sb="0" eb="3">
       <t>フクオカシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>熊本市</t>
     <rPh sb="0" eb="3">
       <t>クマモトシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>川辺郡</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>多可郡</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>加古郡</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>神崎郡</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>揖保郡</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>赤穂郡</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>佐用郡</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>美方郡</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>従前の住所地なし</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -824,11 +824,18 @@
       </rPr>
       <t>(区部)</t>
     </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>転  出</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>転  出</t>
-    <phoneticPr fontId="8"/>
+    <t>地域</t>
+    <rPh sb="0" eb="2">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
@@ -836,16 +843,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="181" formatCode="#,##0;&quot;△&quot;\ #,##0;&quot;―&quot;"/>
-    <numFmt numFmtId="183" formatCode="#,##0;[Red]&quot;△&quot;#,##0;&quot;―&quot;"/>
+    <numFmt numFmtId="176" formatCode="#,##0;&quot;△&quot;\ #,##0;&quot;―&quot;"/>
+    <numFmt numFmtId="177" formatCode="#,##0;[Red]&quot;△&quot;#,##0;&quot;―&quot;"/>
   </numFmts>
-  <fonts count="10">
-    <font>
-      <sz val="11"/>
-      <name val="明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -867,12 +868,6 @@
       <sz val="13"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -951,39 +946,39 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1271,7 +1266,7 @@
   <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.85" customHeight="1"/>
@@ -1282,7 +1277,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="10"/>
+      <c r="A1" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2545,7 +2542,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="7"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.6692913385826772" right="0.6692913385826772" top="0.51181102362204722" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" scale="69" pageOrder="overThenDown" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/24jinugoki.xlsx
+++ b/24jinugoki.xlsx
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Ⅵ!$A$1:$C$115</definedName>
   </definedNames>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>転  入</t>
   </si>
@@ -834,6 +834,13 @@
     <t>地域</t>
     <rPh sb="0" eb="2">
       <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>差</t>
+    <rPh sb="0" eb="1">
+      <t>サ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -904,7 +911,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -914,32 +921,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,33 +944,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1263,1282 +1252,1741 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.85" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14" style="3" customWidth="1"/>
-    <col min="2" max="3" width="10" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="11" style="3"/>
+    <col min="1" max="1" width="14" style="2" customWidth="1"/>
+    <col min="2" max="3" width="10" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="D1" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="7">
         <v>2595</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>3104</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="D2" s="8">
+        <f>B2-C2</f>
+        <v>-509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <v>2692</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>2885</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="D3" s="8">
+        <f t="shared" ref="D3:D66" si="0">B3-C3</f>
+        <v>-193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="7">
         <v>4058</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>4148</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="D4" s="8">
+        <f t="shared" si="0"/>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>3420</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>3021</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="D5" s="8">
+        <f t="shared" si="0"/>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1">
+      <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="7">
         <v>2379</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>2215</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="D6" s="8">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" customHeight="1">
+      <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <v>2651</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>2552</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="D7" s="8">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" customHeight="1">
+      <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="7">
         <v>3387</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>3030</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="D8" s="8">
+        <f t="shared" si="0"/>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" customHeight="1">
+      <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="7">
         <v>3225</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="7">
         <v>3383</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1">
-      <c r="A10" s="4" t="s">
+      <c r="D9" s="8">
+        <f t="shared" si="0"/>
+        <v>-158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" customHeight="1">
+      <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="7">
         <v>2836</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>2894</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1">
-      <c r="A11" s="4" t="s">
+      <c r="D10" s="8">
+        <f t="shared" si="0"/>
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" customHeight="1">
+      <c r="A11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="7">
         <v>1241</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="7">
         <v>986</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="18" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="D11" s="8">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" customHeight="1">
+      <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="7">
         <v>1442</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="7">
         <v>1537</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="18" customHeight="1">
-      <c r="A13" s="4" t="s">
+      <c r="D12" s="8">
+        <f t="shared" si="0"/>
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" customHeight="1">
+      <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="7">
         <v>3217</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="7">
         <v>3041</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="18" customHeight="1">
-      <c r="A14" s="4" t="s">
+      <c r="D13" s="8">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" customHeight="1">
+      <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="7">
         <v>2341</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="7">
         <v>2906</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="18" customHeight="1">
-      <c r="A15" s="4" t="s">
+      <c r="D14" s="8">
+        <f t="shared" si="0"/>
+        <v>-565</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18" customHeight="1">
+      <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="7">
         <v>221</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="7">
         <v>139</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="30.75" customHeight="1">
-      <c r="A16" s="4" t="s">
+      <c r="D15" s="8">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30.75" customHeight="1">
+      <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="7">
         <v>1091</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="7">
         <v>1259</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="18" customHeight="1">
-      <c r="A17" s="4" t="s">
+      <c r="D16" s="8">
+        <f t="shared" si="0"/>
+        <v>-168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18" customHeight="1">
+      <c r="A17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="7">
         <v>364</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="7">
         <v>357</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="18" customHeight="1">
-      <c r="A18" s="4" t="s">
+      <c r="D17" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18" customHeight="1">
+      <c r="A18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="7">
         <v>43</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="7">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="18" customHeight="1">
-      <c r="A19" s="4" t="s">
+      <c r="D18" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18" customHeight="1">
+      <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="7">
         <v>220</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="7">
         <v>160</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="18" customHeight="1">
-      <c r="A20" s="4" t="s">
+      <c r="D19" s="8">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18" customHeight="1">
+      <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="7">
         <v>1050</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="7">
         <v>864</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="30.75" customHeight="1">
-      <c r="A21" s="4" t="s">
+      <c r="D20" s="8">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30.75" customHeight="1">
+      <c r="A21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="7">
         <v>118</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="18" customHeight="1">
-      <c r="A22" s="4" t="s">
+      <c r="D21" s="8">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18" customHeight="1">
+      <c r="A22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="7">
         <v>137</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="7">
         <v>91</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="18" customHeight="1">
-      <c r="A23" s="4" t="s">
+      <c r="D22" s="8">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18" customHeight="1">
+      <c r="A23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="7">
         <v>497</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="7">
         <v>627</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="18" customHeight="1">
-      <c r="A24" s="4" t="s">
+      <c r="D23" s="8">
+        <f t="shared" si="0"/>
+        <v>-130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18" customHeight="1">
+      <c r="A24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="7">
         <v>644</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="7">
         <v>608</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="18" customHeight="1">
-      <c r="A25" s="4" t="s">
+      <c r="D24" s="8">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18" customHeight="1">
+      <c r="A25" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="7">
         <v>279</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="7">
         <v>189</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="30.75" customHeight="1">
-      <c r="A26" s="4" t="s">
+      <c r="D25" s="8">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30.75" customHeight="1">
+      <c r="A26" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="7">
         <v>217</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="7">
         <v>202</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="18" customHeight="1">
-      <c r="A27" s="4" t="s">
+      <c r="D26" s="8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18" customHeight="1">
+      <c r="A27" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="7">
         <v>189</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="7">
         <v>159</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="18" customHeight="1">
-      <c r="A28" s="4" t="s">
+      <c r="D27" s="8">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18" customHeight="1">
+      <c r="A28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="7">
         <v>718</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="7">
         <v>992</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="18" customHeight="1">
-      <c r="A29" s="4" t="s">
+      <c r="D28" s="8">
+        <f t="shared" si="0"/>
+        <v>-274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18" customHeight="1">
+      <c r="A29" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="7">
         <v>90</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="7">
         <v>82</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="18" customHeight="1">
-      <c r="A30" s="4" t="s">
+      <c r="D29" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18" customHeight="1">
+      <c r="A30" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="7">
         <v>125</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="7">
         <v>101</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="30.75" customHeight="1">
-      <c r="A31" s="4" t="s">
+      <c r="D30" s="8">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30.75" customHeight="1">
+      <c r="A31" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="7">
         <v>51</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="7">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="18" customHeight="1">
-      <c r="A32" s="4" t="s">
+      <c r="D31" s="8">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18" customHeight="1">
+      <c r="A32" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="7">
         <v>173</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="7">
         <v>106</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="18" customHeight="1">
-      <c r="A33" s="4" t="s">
+      <c r="D32" s="8">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18" customHeight="1">
+      <c r="A33" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="7">
         <v>119</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="7">
         <v>84</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="18" customHeight="1">
-      <c r="A34" s="4" t="s">
+      <c r="D33" s="8">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18" customHeight="1">
+      <c r="A34" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="7">
         <v>80</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="7">
         <v>75</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="18" customHeight="1">
-      <c r="A35" s="4" t="s">
+      <c r="D34" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18" customHeight="1">
+      <c r="A35" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="7">
         <v>239</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="7">
         <v>152</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="30.75" customHeight="1">
-      <c r="A36" s="4" t="s">
+      <c r="D35" s="8">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30.75" customHeight="1">
+      <c r="A36" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="7">
         <v>78</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="18" customHeight="1">
-      <c r="A37" s="4" t="s">
+      <c r="D36" s="8">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18" customHeight="1">
+      <c r="A37" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="7">
         <v>168</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="7">
         <v>150</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="18" customHeight="1">
-      <c r="A38" s="4" t="s">
+      <c r="D37" s="8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18" customHeight="1">
+      <c r="A38" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="7">
         <v>108</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="7">
         <v>99</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="18" customHeight="1">
-      <c r="A39" s="4" t="s">
+      <c r="D38" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18" customHeight="1">
+      <c r="A39" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="7">
         <v>47</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="18" customHeight="1">
-      <c r="A40" s="4" t="s">
+      <c r="D39" s="8">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18" customHeight="1">
+      <c r="A40" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="7">
         <v>36</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="7">
         <v>31</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="30.75" customHeight="1">
-      <c r="A41" s="4" t="s">
+      <c r="D40" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30.75" customHeight="1">
+      <c r="A41" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="7">
         <v>265</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="7">
         <v>279</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="18" customHeight="1">
-      <c r="A42" s="4" t="s">
+      <c r="D41" s="8">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18" customHeight="1">
+      <c r="A42" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="7">
         <v>71</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="7">
         <v>74</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="18" customHeight="1">
-      <c r="A43" s="4" t="s">
+      <c r="D42" s="8">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18" customHeight="1">
+      <c r="A43" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="7">
         <v>58</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="7">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="18" customHeight="1">
-      <c r="A44" s="4" t="s">
+      <c r="D43" s="8">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18" customHeight="1">
+      <c r="A44" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="7">
         <v>28</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="18" customHeight="1">
-      <c r="A45" s="4" t="s">
+      <c r="D44" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18" customHeight="1">
+      <c r="A45" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="7">
         <v>43</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="30.75" customHeight="1">
-      <c r="A46" s="4" t="s">
+      <c r="D45" s="8">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="30.75" customHeight="1">
+      <c r="A46" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="7">
         <v>58</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="7">
         <v>41</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="18" customHeight="1">
-      <c r="A47" s="4" t="s">
+      <c r="D46" s="8">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="18" customHeight="1">
+      <c r="A47" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="7">
         <v>0</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="15" customHeight="1">
-      <c r="A48" s="4" t="s">
+      <c r="D47" s="8">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" customHeight="1">
+      <c r="A48" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="7">
         <v>486</v>
       </c>
       <c r="C48" s="7">
         <v>366</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" customHeight="1">
-      <c r="A49" s="4" t="s">
+      <c r="D48" s="8">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" customHeight="1">
+      <c r="A49" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="7">
         <v>56</v>
       </c>
       <c r="C49" s="7">
         <v>62</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="15" customHeight="1">
-      <c r="A50" s="4" t="s">
+      <c r="D49" s="8">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" customHeight="1">
+      <c r="A50" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="7">
         <v>56</v>
       </c>
       <c r="C50" s="7">
         <v>59</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="15" customHeight="1">
-      <c r="A51" s="4" t="s">
+      <c r="D50" s="8">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" customHeight="1">
+      <c r="A51" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="7">
         <v>216</v>
       </c>
       <c r="C51" s="7">
         <v>271</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="15" customHeight="1">
-      <c r="A52" s="4" t="s">
+      <c r="D51" s="8">
+        <f t="shared" si="0"/>
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" customHeight="1">
+      <c r="A52" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="7">
         <v>33</v>
       </c>
       <c r="C52" s="7">
         <v>38</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="15" customHeight="1">
-      <c r="A53" s="4" t="s">
+      <c r="D52" s="8">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" customHeight="1">
+      <c r="A53" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="7">
         <v>46</v>
       </c>
       <c r="C53" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="15" customHeight="1">
-      <c r="A54" s="4" t="s">
+      <c r="D53" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" customHeight="1">
+      <c r="A54" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="7">
         <v>146</v>
       </c>
       <c r="C54" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="21" customHeight="1">
-      <c r="A55" s="4" t="s">
+      <c r="D54" s="8">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="21" customHeight="1">
+      <c r="A55" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="7">
         <v>245</v>
       </c>
       <c r="C55" s="7">
         <v>250</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="15" customHeight="1">
-      <c r="A56" s="4" t="s">
+      <c r="D55" s="8">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" customHeight="1">
+      <c r="A56" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="7">
         <v>135</v>
       </c>
       <c r="C56" s="7">
         <v>129</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="15" customHeight="1">
-      <c r="A57" s="4" t="s">
+      <c r="D56" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" customHeight="1">
+      <c r="A57" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="7">
         <v>106</v>
       </c>
       <c r="C57" s="7">
         <v>85</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="15" customHeight="1">
-      <c r="A58" s="4" t="s">
+      <c r="D57" s="8">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" customHeight="1">
+      <c r="A58" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="7">
         <v>696</v>
       </c>
       <c r="C58" s="7">
         <v>755</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1">
-      <c r="A59" s="4" t="s">
+      <c r="D58" s="8">
+        <f t="shared" si="0"/>
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" customHeight="1">
+      <c r="A59" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="7">
         <v>980</v>
       </c>
       <c r="C59" s="7">
         <v>925</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1">
-      <c r="A60" s="4" t="s">
+      <c r="D59" s="8">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" customHeight="1">
+      <c r="A60" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="7">
         <v>2994</v>
       </c>
       <c r="C60" s="7">
         <v>3940</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="15" customHeight="1">
-      <c r="A61" s="4" t="s">
+      <c r="D60" s="8">
+        <f t="shared" si="0"/>
+        <v>-946</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" customHeight="1">
+      <c r="A61" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="7">
         <v>1543</v>
       </c>
       <c r="C61" s="7">
         <v>1778</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="21" customHeight="1">
-      <c r="A62" s="4" t="s">
+      <c r="D61" s="8">
+        <f t="shared" si="0"/>
+        <v>-235</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="21" customHeight="1">
+      <c r="A62" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="7">
         <v>149</v>
       </c>
       <c r="C62" s="7">
         <v>86</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="15" customHeight="1">
-      <c r="A63" s="4" t="s">
+      <c r="D62" s="8">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" customHeight="1">
+      <c r="A63" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="7">
         <v>131</v>
       </c>
       <c r="C63" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="15" customHeight="1">
-      <c r="A64" s="4" t="s">
+      <c r="D63" s="8">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" customHeight="1">
+      <c r="A64" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="7">
         <v>213</v>
       </c>
       <c r="C64" s="7">
         <v>177</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="15" customHeight="1">
-      <c r="A65" s="4" t="s">
+      <c r="D64" s="8">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" customHeight="1">
+      <c r="A65" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="7">
         <v>186</v>
       </c>
       <c r="C65" s="7">
         <v>135</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="15" customHeight="1">
-      <c r="A66" s="4" t="s">
+      <c r="D65" s="8">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" customHeight="1">
+      <c r="A66" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="7">
         <v>84</v>
       </c>
       <c r="C66" s="7">
         <v>66</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="15" customHeight="1">
-      <c r="A67" s="4" t="s">
+      <c r="D66" s="8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" customHeight="1">
+      <c r="A67" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="7">
         <v>177</v>
       </c>
       <c r="C67" s="7">
         <v>139</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="15" customHeight="1">
-      <c r="A68" s="4" t="s">
+      <c r="D67" s="8">
+        <f t="shared" ref="D67:D115" si="1">B67-C67</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" customHeight="1">
+      <c r="A68" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="7">
         <v>204</v>
       </c>
       <c r="C68" s="7">
         <v>221</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="15" customHeight="1">
-      <c r="A69" s="4" t="s">
+      <c r="D68" s="8">
+        <f t="shared" si="1"/>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" customHeight="1">
+      <c r="A69" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="7">
         <v>362</v>
       </c>
       <c r="C69" s="7">
         <v>362</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="15" customHeight="1">
-      <c r="A70" s="4" t="s">
+      <c r="D69" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" customHeight="1">
+      <c r="A70" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="7">
         <v>1291</v>
       </c>
       <c r="C70" s="7">
         <v>1365</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="15" customHeight="1">
-      <c r="A71" s="4" t="s">
+      <c r="D70" s="8">
+        <f t="shared" si="1"/>
+        <v>-74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" customHeight="1">
+      <c r="A71" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="7">
         <v>353</v>
       </c>
       <c r="C71" s="7">
         <v>316</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="21" customHeight="1">
-      <c r="A72" s="4" t="s">
+      <c r="D71" s="8">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="21" customHeight="1">
+      <c r="A72" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="7">
         <v>525</v>
       </c>
       <c r="C72" s="7">
         <v>499</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="15" customHeight="1">
-      <c r="A73" s="4" t="s">
+      <c r="D72" s="8">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15" customHeight="1">
+      <c r="A73" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73" s="7">
         <v>1596</v>
       </c>
       <c r="C73" s="7">
         <v>1416</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="15" customHeight="1">
-      <c r="A74" s="4" t="s">
+      <c r="D73" s="8">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15" customHeight="1">
+      <c r="A74" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74" s="7">
         <v>6829</v>
       </c>
       <c r="C74" s="7">
         <v>7185</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="15" customHeight="1">
-      <c r="A75" s="4" t="s">
+      <c r="D74" s="8">
+        <f t="shared" si="1"/>
+        <v>-356</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15" customHeight="1">
+      <c r="A75" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" s="7">
         <v>654</v>
       </c>
       <c r="C75" s="7">
         <v>523</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="15" customHeight="1">
-      <c r="A76" s="4" t="s">
+      <c r="D75" s="8">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15" customHeight="1">
+      <c r="A76" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="7">
         <v>368</v>
       </c>
       <c r="C76" s="7">
         <v>343</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="21" customHeight="1">
-      <c r="A77" s="4" t="s">
+      <c r="D76" s="8">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="21" customHeight="1">
+      <c r="A77" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77" s="7">
         <v>302</v>
       </c>
       <c r="C77" s="7">
         <v>209</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="15" customHeight="1">
-      <c r="A78" s="4" t="s">
+      <c r="D77" s="8">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15" customHeight="1">
+      <c r="A78" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="7">
         <v>269</v>
       </c>
       <c r="C78" s="7">
         <v>224</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="15" customHeight="1">
-      <c r="A79" s="4" t="s">
+      <c r="D78" s="8">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" customHeight="1">
+      <c r="A79" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79" s="7">
         <v>966</v>
       </c>
       <c r="C79" s="7">
         <v>814</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="15" customHeight="1">
-      <c r="A80" s="4" t="s">
+      <c r="D79" s="8">
+        <f t="shared" si="1"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15" customHeight="1">
+      <c r="A80" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B80" s="7">
         <v>1157</v>
       </c>
       <c r="C80" s="7">
         <v>959</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="15" customHeight="1">
-      <c r="A81" s="4" t="s">
+      <c r="D80" s="8">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" customHeight="1">
+      <c r="A81" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81" s="7">
         <v>359</v>
       </c>
       <c r="C81" s="7">
         <v>270</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="21" customHeight="1">
-      <c r="A82" s="4" t="s">
+      <c r="D81" s="8">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="21" customHeight="1">
+      <c r="A82" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82" s="7">
         <v>461</v>
       </c>
       <c r="C82" s="7">
         <v>313</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="15" customHeight="1">
-      <c r="A83" s="4" t="s">
+      <c r="D82" s="8">
+        <f t="shared" si="1"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15" customHeight="1">
+      <c r="A83" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83" s="7">
         <v>538</v>
       </c>
       <c r="C83" s="7">
         <v>457</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="15" customHeight="1">
-      <c r="A84" s="4" t="s">
+      <c r="D83" s="8">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15" customHeight="1">
+      <c r="A84" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84" s="7">
         <v>507</v>
       </c>
       <c r="C84" s="7">
         <v>396</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="15" customHeight="1">
-      <c r="A85" s="4" t="s">
+      <c r="D84" s="8">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15" customHeight="1">
+      <c r="A85" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B85" s="7">
         <v>325</v>
       </c>
       <c r="C85" s="7">
         <v>199</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="21" customHeight="1">
-      <c r="A86" s="4" t="s">
+      <c r="D85" s="8">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="21" customHeight="1">
+      <c r="A86" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86" s="7">
         <v>1017</v>
       </c>
       <c r="C86" s="7">
         <v>876</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="15" customHeight="1">
-      <c r="A87" s="4" t="s">
+      <c r="D86" s="8">
+        <f t="shared" si="1"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15" customHeight="1">
+      <c r="A87" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B87" s="7">
         <v>121</v>
       </c>
       <c r="C87" s="7">
         <v>91</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="15" customHeight="1">
-      <c r="A88" s="4" t="s">
+      <c r="D87" s="8">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15" customHeight="1">
+      <c r="A88" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B88" s="5">
+      <c r="B88" s="7">
         <v>283</v>
       </c>
       <c r="C88" s="7">
         <v>233</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="15" customHeight="1">
-      <c r="A89" s="4" t="s">
+      <c r="D88" s="8">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15" customHeight="1">
+      <c r="A89" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B89" s="5">
+      <c r="B89" s="7">
         <v>238</v>
       </c>
       <c r="C89" s="7">
         <v>177</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="15" customHeight="1">
-      <c r="A90" s="4" t="s">
+      <c r="D89" s="8">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" customHeight="1">
+      <c r="A90" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B90" s="5">
+      <c r="B90" s="7">
         <v>138</v>
       </c>
       <c r="C90" s="7">
         <v>150</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="15" customHeight="1">
-      <c r="A91" s="4" t="s">
+      <c r="D90" s="8">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15" customHeight="1">
+      <c r="A91" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B91" s="7">
         <v>163</v>
       </c>
       <c r="C91" s="7">
         <v>149</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="15" customHeight="1">
-      <c r="A92" s="4" t="s">
+      <c r="D91" s="8">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15" customHeight="1">
+      <c r="A92" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B92" s="7">
         <v>341</v>
       </c>
       <c r="C92" s="7">
         <v>316</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="15" customHeight="1">
-      <c r="A93" s="4" t="s">
+      <c r="D92" s="8">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15" customHeight="1">
+      <c r="A93" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B93" s="5">
+      <c r="B93" s="7">
         <v>264</v>
       </c>
       <c r="C93" s="7">
         <v>287</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="21.6" customHeight="1">
-      <c r="A94" s="4" t="s">
+      <c r="D93" s="8">
+        <f t="shared" si="1"/>
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="21.6" customHeight="1">
+      <c r="A94" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="7">
         <v>5275</v>
       </c>
       <c r="C94" s="7">
         <v>4683</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="15" customHeight="1">
-      <c r="A95" s="8" t="s">
+      <c r="D94" s="8">
+        <f t="shared" si="1"/>
+        <v>592</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15" customHeight="1">
+      <c r="A95" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B95" s="5">
+      <c r="B95" s="7">
         <v>1271</v>
       </c>
       <c r="C95" s="7">
         <v>2924</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="15" customHeight="1">
-      <c r="A96" s="9" t="s">
+      <c r="D95" s="8">
+        <f t="shared" si="1"/>
+        <v>-1653</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15" customHeight="1">
+      <c r="A96" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B96" s="5">
+      <c r="B96" s="7">
         <v>268</v>
       </c>
       <c r="C96" s="7">
         <v>203</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="15" customHeight="1">
-      <c r="A97" s="9" t="s">
+      <c r="D96" s="8">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15" customHeight="1">
+      <c r="A97" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B97" s="5">
+      <c r="B97" s="7">
         <v>171</v>
       </c>
       <c r="C97" s="7">
         <v>193</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="15" customHeight="1">
-      <c r="A98" s="9" t="s">
+      <c r="D97" s="8">
+        <f t="shared" si="1"/>
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15" customHeight="1">
+      <c r="A98" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B98" s="5">
+      <c r="B98" s="7">
         <v>190</v>
       </c>
       <c r="C98" s="7">
         <v>203</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="15" customHeight="1">
-      <c r="A99" s="9" t="s">
+      <c r="D98" s="8">
+        <f t="shared" si="1"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15" customHeight="1">
+      <c r="A99" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B99" s="5">
+      <c r="B99" s="7">
         <v>167</v>
       </c>
       <c r="C99" s="7">
         <v>170</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="15" customHeight="1">
-      <c r="A100" s="9" t="s">
+      <c r="D99" s="8">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15" customHeight="1">
+      <c r="A100" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B100" s="5">
+      <c r="B100" s="7">
         <v>2336</v>
       </c>
       <c r="C100" s="7">
         <v>3242</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="15" customHeight="1">
-      <c r="A101" s="9" t="s">
+      <c r="D100" s="8">
+        <f t="shared" si="1"/>
+        <v>-906</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15" customHeight="1">
+      <c r="A101" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B101" s="5">
+      <c r="B101" s="7">
         <v>846</v>
       </c>
       <c r="C101" s="7">
         <v>930</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="15" customHeight="1">
-      <c r="A102" s="9" t="s">
+      <c r="D101" s="8">
+        <f t="shared" si="1"/>
+        <v>-84</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15" customHeight="1">
+      <c r="A102" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B102" s="5">
+      <c r="B102" s="7">
         <v>314</v>
       </c>
       <c r="C102" s="7">
         <v>420</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="15" customHeight="1">
-      <c r="A103" s="9" t="s">
+      <c r="D102" s="8">
+        <f t="shared" si="1"/>
+        <v>-106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15" customHeight="1">
+      <c r="A103" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B103" s="5">
+      <c r="B103" s="7">
         <v>83</v>
       </c>
       <c r="C103" s="7">
         <v>75</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="15" customHeight="1">
-      <c r="A104" s="9" t="s">
+      <c r="D103" s="8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15" customHeight="1">
+      <c r="A104" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B104" s="5">
+      <c r="B104" s="7">
         <v>73</v>
       </c>
       <c r="C104" s="7">
         <v>39</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A105" s="9" t="s">
+      <c r="D104" s="8">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="22.5" customHeight="1">
+      <c r="A105" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B105" s="5">
+      <c r="B105" s="7">
         <v>82</v>
       </c>
       <c r="C105" s="7">
         <v>94</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" ht="15" customHeight="1">
-      <c r="A106" s="9" t="s">
+      <c r="D105" s="8">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15" customHeight="1">
+      <c r="A106" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B106" s="5">
+      <c r="B106" s="7">
         <v>91</v>
       </c>
       <c r="C106" s="7">
         <v>89</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" ht="15" customHeight="1">
-      <c r="A107" s="9" t="s">
+      <c r="D106" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15" customHeight="1">
+      <c r="A107" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B107" s="5">
+      <c r="B107" s="7">
         <v>652</v>
       </c>
       <c r="C107" s="7">
         <v>730</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="15" customHeight="1">
-      <c r="A108" s="9" t="s">
+      <c r="D107" s="8">
+        <f t="shared" si="1"/>
+        <v>-78</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15" customHeight="1">
+      <c r="A108" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B108" s="5">
+      <c r="B108" s="7">
         <v>953</v>
       </c>
       <c r="C108" s="7">
         <v>928</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" ht="15" customHeight="1">
-      <c r="A109" s="9" t="s">
+      <c r="D108" s="8">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15" customHeight="1">
+      <c r="A109" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B109" s="5">
+      <c r="B109" s="7">
         <v>2922</v>
       </c>
       <c r="C109" s="7">
         <v>3647</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" ht="15" customHeight="1">
-      <c r="A110" s="9" t="s">
+      <c r="D109" s="8">
+        <f t="shared" si="1"/>
+        <v>-725</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15" customHeight="1">
+      <c r="A110" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B110" s="5">
+      <c r="B110" s="7">
         <v>500</v>
       </c>
       <c r="C110" s="7">
         <v>411</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" ht="15" customHeight="1">
-      <c r="A111" s="9" t="s">
+      <c r="D110" s="8">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15" customHeight="1">
+      <c r="A111" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B111" s="5">
+      <c r="B111" s="7">
         <v>467</v>
       </c>
       <c r="C111" s="7">
         <v>394</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" ht="15" customHeight="1">
-      <c r="A112" s="9" t="s">
+      <c r="D111" s="8">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15" customHeight="1">
+      <c r="A112" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B112" s="5">
+      <c r="B112" s="7">
         <v>423</v>
       </c>
       <c r="C112" s="7">
         <v>416</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" ht="15" customHeight="1">
-      <c r="A113" s="9" t="s">
+      <c r="D112" s="8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15" customHeight="1">
+      <c r="A113" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B113" s="5">
+      <c r="B113" s="7">
         <v>167</v>
       </c>
       <c r="C113" s="7">
         <v>158</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="15" customHeight="1">
-      <c r="A114" s="9" t="s">
+      <c r="D113" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15" customHeight="1">
+      <c r="A114" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B114" s="5">
+      <c r="B114" s="7">
         <v>506</v>
       </c>
       <c r="C114" s="7">
         <v>442</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="15" customHeight="1">
-      <c r="A115" s="9" t="s">
+      <c r="D114" s="8">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15" customHeight="1">
+      <c r="A115" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B115" s="5">
+      <c r="B115" s="7">
         <v>92</v>
       </c>
       <c r="C115" s="7">
         <v>42</v>
+      </c>
+      <c r="D115" s="8">
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
